--- a/ig/issue142-correctif-slices-sdo-task/all-profiles.xlsx
+++ b/ig/issue142-correctif-slices-sdo-task/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17130" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17130" uniqueCount="1262">
   <si>
     <t>Property</t>
   </si>
@@ -3131,6 +3131,9 @@
   <si>
     <t xml:space="preserve">Supporting Information
 </t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Information used to perform task</t>
@@ -39558,7 +39561,7 @@
       </c>
       <c r="F329" s="2"/>
       <c r="G329" t="s" s="2">
-        <v>75</v>
+        <v>998</v>
       </c>
       <c r="H329" t="s" s="2">
         <v>76</v>
@@ -39576,14 +39579,14 @@
         <v>136</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O329" s="2"/>
       <c r="P329" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q329" t="s" s="2">
         <v>74</v>
@@ -39620,7 +39623,7 @@
         <v>74</v>
       </c>
       <c r="AC329" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AD329" s="2"/>
       <c r="AE329" t="s" s="2">
@@ -39650,10 +39653,10 @@
         <v>812</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39753,10 +39756,10 @@
         <v>812</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39858,10 +39861,10 @@
         <v>812</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39965,14 +39968,14 @@
         <v>812</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" t="s" s="2">
@@ -39994,16 +39997,16 @@
         <v>356</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O333" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P333" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q333" t="s" s="2">
         <v>74</v>
@@ -40031,7 +40034,7 @@
         <v>317</v>
       </c>
       <c r="Z333" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA333" t="s" s="2">
         <v>74</v>
@@ -40052,7 +40055,7 @@
         <v>74</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>82</v>
@@ -40072,10 +40075,10 @@
         <v>812</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40098,13 +40101,13 @@
         <v>74</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
@@ -40155,7 +40158,7 @@
         <v>74</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>82</v>
@@ -40175,13 +40178,13 @@
         <v>812</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C335" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E335" t="s" s="2">
         <v>997</v>
@@ -40206,14 +40209,14 @@
         <v>136</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O335" s="2"/>
       <c r="P335" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q335" t="s" s="2">
         <v>74</v>
@@ -40282,10 +40285,10 @@
         <v>812</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40385,10 +40388,10 @@
         <v>812</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40490,10 +40493,10 @@
         <v>812</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40597,14 +40600,14 @@
         <v>812</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" t="s" s="2">
@@ -40626,16 +40629,16 @@
         <v>356</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P339" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q339" t="s" s="2">
         <v>74</v>
@@ -40663,7 +40666,7 @@
         <v>317</v>
       </c>
       <c r="Z339" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA339" t="s" s="2">
         <v>74</v>
@@ -40684,7 +40687,7 @@
         <v>74</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>82</v>
@@ -40704,10 +40707,10 @@
         <v>812</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40807,10 +40810,10 @@
         <v>812</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40912,10 +40915,10 @@
         <v>812</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40941,16 +40944,16 @@
         <v>305</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>74</v>
@@ -40999,7 +41002,7 @@
         <v>74</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>75</v>
@@ -41019,10 +41022,10 @@
         <v>812</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41048,23 +41051,23 @@
         <v>141</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O343" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P343" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q343" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R343" s="2"/>
       <c r="S343" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="T343" t="s" s="2">
         <v>74</v>
@@ -41106,7 +41109,7 @@
         <v>74</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>75</v>
@@ -41126,10 +41129,10 @@
         <v>812</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41155,10 +41158,10 @@
         <v>112</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" s="2"/>
@@ -41209,7 +41212,7 @@
         <v>74</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>82</v>
@@ -41229,13 +41232,13 @@
         <v>812</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D345" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E345" t="s" s="2">
         <v>997</v>
@@ -41260,14 +41263,14 @@
         <v>136</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O345" s="2"/>
       <c r="P345" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>74</v>
@@ -41336,10 +41339,10 @@
         <v>812</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41439,10 +41442,10 @@
         <v>812</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41544,10 +41547,10 @@
         <v>812</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41651,14 +41654,14 @@
         <v>812</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" t="s" s="2">
@@ -41680,16 +41683,16 @@
         <v>356</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O349" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P349" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q349" t="s" s="2">
         <v>74</v>
@@ -41717,7 +41720,7 @@
         <v>317</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA349" t="s" s="2">
         <v>74</v>
@@ -41738,7 +41741,7 @@
         <v>74</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>82</v>
@@ -41758,10 +41761,10 @@
         <v>812</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41861,10 +41864,10 @@
         <v>812</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41966,10 +41969,10 @@
         <v>812</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41995,16 +41998,16 @@
         <v>305</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P352" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q352" t="s" s="2">
         <v>74</v>
@@ -42053,7 +42056,7 @@
         <v>74</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>75</v>
@@ -42073,10 +42076,10 @@
         <v>812</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42102,23 +42105,23 @@
         <v>141</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P353" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q353" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R353" s="2"/>
       <c r="S353" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="T353" t="s" s="2">
         <v>74</v>
@@ -42160,7 +42163,7 @@
         <v>74</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>75</v>
@@ -42180,10 +42183,10 @@
         <v>812</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -42209,10 +42212,10 @@
         <v>141</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
@@ -42263,7 +42266,7 @@
         <v>74</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>82</v>
@@ -42283,20 +42286,20 @@
         <v>812</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C355" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E355" t="s" s="2">
         <v>997</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H355" t="s" s="2">
         <v>82</v>
@@ -42314,14 +42317,14 @@
         <v>136</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q355" t="s" s="2">
         <v>74</v>
@@ -42390,10 +42393,10 @@
         <v>812</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42493,10 +42496,10 @@
         <v>812</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42598,10 +42601,10 @@
         <v>812</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42705,14 +42708,14 @@
         <v>812</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" t="s" s="2">
@@ -42734,16 +42737,16 @@
         <v>356</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O359" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P359" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>74</v>
@@ -42771,7 +42774,7 @@
         <v>317</v>
       </c>
       <c r="Z359" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA359" t="s" s="2">
         <v>74</v>
@@ -42792,7 +42795,7 @@
         <v>74</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>82</v>
@@ -42812,10 +42815,10 @@
         <v>812</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -42915,10 +42918,10 @@
         <v>812</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -43020,10 +43023,10 @@
         <v>812</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43049,16 +43052,16 @@
         <v>305</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O362" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P362" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>74</v>
@@ -43107,7 +43110,7 @@
         <v>74</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>75</v>
@@ -43127,10 +43130,10 @@
         <v>812</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -43156,23 +43159,23 @@
         <v>141</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P363" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q363" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R363" s="2"/>
       <c r="S363" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="T363" t="s" s="2">
         <v>74</v>
@@ -43214,7 +43217,7 @@
         <v>74</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>75</v>
@@ -43234,10 +43237,10 @@
         <v>812</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -43263,10 +43266,10 @@
         <v>356</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
@@ -43297,7 +43300,7 @@
       </c>
       <c r="Z364" s="2"/>
       <c r="AA364" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AB364" t="s" s="2">
         <v>74</v>
@@ -43315,7 +43318,7 @@
         <v>74</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>82</v>
@@ -43335,13 +43338,13 @@
         <v>812</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C365" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D365" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E365" t="s" s="2">
         <v>997</v>
@@ -43366,14 +43369,14 @@
         <v>136</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O365" s="2"/>
       <c r="P365" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q365" t="s" s="2">
         <v>74</v>
@@ -43442,10 +43445,10 @@
         <v>812</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43545,10 +43548,10 @@
         <v>812</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43650,10 +43653,10 @@
         <v>812</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43757,14 +43760,14 @@
         <v>812</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
@@ -43786,16 +43789,16 @@
         <v>356</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P369" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q369" t="s" s="2">
         <v>74</v>
@@ -43823,7 +43826,7 @@
         <v>317</v>
       </c>
       <c r="Z369" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA369" t="s" s="2">
         <v>74</v>
@@ -43844,7 +43847,7 @@
         <v>74</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>82</v>
@@ -43864,10 +43867,10 @@
         <v>812</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43967,10 +43970,10 @@
         <v>812</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44072,10 +44075,10 @@
         <v>812</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -44101,16 +44104,16 @@
         <v>305</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O372" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P372" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>74</v>
@@ -44159,7 +44162,7 @@
         <v>74</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>75</v>
@@ -44179,10 +44182,10 @@
         <v>812</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -44208,23 +44211,23 @@
         <v>141</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P373" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q373" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R373" s="2"/>
       <c r="S373" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="T373" t="s" s="2">
         <v>74</v>
@@ -44266,7 +44269,7 @@
         <v>74</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>75</v>
@@ -44286,10 +44289,10 @@
         <v>812</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -44315,10 +44318,10 @@
         <v>356</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O374" s="2"/>
       <c r="P374" s="2"/>
@@ -44349,7 +44352,7 @@
       </c>
       <c r="Z374" s="2"/>
       <c r="AA374" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AB374" t="s" s="2">
         <v>74</v>
@@ -44367,7 +44370,7 @@
         <v>74</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>82</v>
@@ -44387,13 +44390,13 @@
         <v>812</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C375" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E375" t="s" s="2">
         <v>997</v>
@@ -44418,14 +44421,14 @@
         <v>136</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q375" t="s" s="2">
         <v>74</v>
@@ -44494,10 +44497,10 @@
         <v>812</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44597,10 +44600,10 @@
         <v>812</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44702,10 +44705,10 @@
         <v>812</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -44809,14 +44812,14 @@
         <v>812</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" t="s" s="2">
@@ -44838,16 +44841,16 @@
         <v>356</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P379" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q379" t="s" s="2">
         <v>74</v>
@@ -44875,7 +44878,7 @@
         <v>317</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA379" t="s" s="2">
         <v>74</v>
@@ -44896,7 +44899,7 @@
         <v>74</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>82</v>
@@ -44916,10 +44919,10 @@
         <v>812</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45019,10 +45022,10 @@
         <v>812</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -45124,10 +45127,10 @@
         <v>812</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -45153,16 +45156,16 @@
         <v>305</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O382" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P382" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q382" t="s" s="2">
         <v>74</v>
@@ -45211,7 +45214,7 @@
         <v>74</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>75</v>
@@ -45231,10 +45234,10 @@
         <v>812</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45260,23 +45263,23 @@
         <v>141</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O383" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P383" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q383" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R383" s="2"/>
       <c r="S383" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="T383" t="s" s="2">
         <v>74</v>
@@ -45318,7 +45321,7 @@
         <v>74</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>75</v>
@@ -45338,10 +45341,10 @@
         <v>812</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -45364,13 +45367,13 @@
         <v>74</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O384" s="2"/>
       <c r="P384" s="2"/>
@@ -45421,7 +45424,7 @@
         <v>74</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>82</v>
@@ -45441,13 +45444,13 @@
         <v>812</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C385" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D385" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E385" t="s" s="2">
         <v>997</v>
@@ -45472,14 +45475,14 @@
         <v>136</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O385" s="2"/>
       <c r="P385" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q385" t="s" s="2">
         <v>74</v>
@@ -45548,10 +45551,10 @@
         <v>812</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -45651,10 +45654,10 @@
         <v>812</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -45756,10 +45759,10 @@
         <v>812</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -45863,14 +45866,14 @@
         <v>812</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" t="s" s="2">
@@ -45892,16 +45895,16 @@
         <v>356</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O389" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P389" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q389" t="s" s="2">
         <v>74</v>
@@ -45929,7 +45932,7 @@
         <v>317</v>
       </c>
       <c r="Z389" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA389" t="s" s="2">
         <v>74</v>
@@ -45950,7 +45953,7 @@
         <v>74</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>82</v>
@@ -45970,10 +45973,10 @@
         <v>812</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46073,10 +46076,10 @@
         <v>812</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -46178,10 +46181,10 @@
         <v>812</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -46207,16 +46210,16 @@
         <v>305</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O392" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P392" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q392" t="s" s="2">
         <v>74</v>
@@ -46265,7 +46268,7 @@
         <v>74</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>75</v>
@@ -46285,10 +46288,10 @@
         <v>812</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -46314,23 +46317,23 @@
         <v>141</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O393" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P393" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q393" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R393" s="2"/>
       <c r="S393" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="T393" t="s" s="2">
         <v>74</v>
@@ -46372,7 +46375,7 @@
         <v>74</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>75</v>
@@ -46392,10 +46395,10 @@
         <v>812</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -46421,10 +46424,10 @@
         <v>112</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O394" s="2"/>
       <c r="P394" s="2"/>
@@ -46475,7 +46478,7 @@
         <v>74</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>82</v>
@@ -46495,13 +46498,13 @@
         <v>812</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C395" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E395" t="s" s="2">
         <v>997</v>
@@ -46526,14 +46529,14 @@
         <v>136</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O395" s="2"/>
       <c r="P395" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q395" t="s" s="2">
         <v>74</v>
@@ -46602,10 +46605,10 @@
         <v>812</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -46705,10 +46708,10 @@
         <v>812</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -46810,10 +46813,10 @@
         <v>812</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -46917,14 +46920,14 @@
         <v>812</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" t="s" s="2">
@@ -46946,16 +46949,16 @@
         <v>356</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O399" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P399" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q399" t="s" s="2">
         <v>74</v>
@@ -46983,7 +46986,7 @@
         <v>317</v>
       </c>
       <c r="Z399" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA399" t="s" s="2">
         <v>74</v>
@@ -47004,7 +47007,7 @@
         <v>74</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>82</v>
@@ -47024,10 +47027,10 @@
         <v>812</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47127,10 +47130,10 @@
         <v>812</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -47232,10 +47235,10 @@
         <v>812</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -47261,16 +47264,16 @@
         <v>305</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O402" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P402" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q402" t="s" s="2">
         <v>74</v>
@@ -47319,7 +47322,7 @@
         <v>74</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>75</v>
@@ -47339,10 +47342,10 @@
         <v>812</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -47368,23 +47371,23 @@
         <v>141</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P403" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q403" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R403" s="2"/>
       <c r="S403" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="T403" t="s" s="2">
         <v>74</v>
@@ -47426,7 +47429,7 @@
         <v>74</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>75</v>
@@ -47446,10 +47449,10 @@
         <v>812</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -47475,10 +47478,10 @@
         <v>141</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
@@ -47529,7 +47532,7 @@
         <v>74</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>82</v>
@@ -47549,13 +47552,13 @@
         <v>812</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C405" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E405" t="s" s="2">
         <v>997</v>
@@ -47580,14 +47583,14 @@
         <v>136</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O405" s="2"/>
       <c r="P405" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q405" t="s" s="2">
         <v>74</v>
@@ -47656,10 +47659,10 @@
         <v>812</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -47759,10 +47762,10 @@
         <v>812</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -47864,10 +47867,10 @@
         <v>812</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -47971,14 +47974,14 @@
         <v>812</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" t="s" s="2">
@@ -48000,16 +48003,16 @@
         <v>356</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O409" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P409" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q409" t="s" s="2">
         <v>74</v>
@@ -48037,7 +48040,7 @@
         <v>317</v>
       </c>
       <c r="Z409" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA409" t="s" s="2">
         <v>74</v>
@@ -48058,7 +48061,7 @@
         <v>74</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>82</v>
@@ -48078,10 +48081,10 @@
         <v>812</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48181,10 +48184,10 @@
         <v>812</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -48286,10 +48289,10 @@
         <v>812</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -48315,16 +48318,16 @@
         <v>305</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O412" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P412" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q412" t="s" s="2">
         <v>74</v>
@@ -48373,7 +48376,7 @@
         <v>74</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>75</v>
@@ -48393,10 +48396,10 @@
         <v>812</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -48422,23 +48425,23 @@
         <v>141</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O413" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P413" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q413" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R413" s="2"/>
       <c r="S413" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="T413" t="s" s="2">
         <v>74</v>
@@ -48480,7 +48483,7 @@
         <v>74</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>75</v>
@@ -48500,10 +48503,10 @@
         <v>812</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -48529,10 +48532,10 @@
         <v>356</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
@@ -48563,7 +48566,7 @@
       </c>
       <c r="Z414" s="2"/>
       <c r="AA414" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AB414" t="s" s="2">
         <v>74</v>
@@ -48581,7 +48584,7 @@
         <v>74</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>82</v>
@@ -48601,13 +48604,13 @@
         <v>812</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C415" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D415" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E415" t="s" s="2">
         <v>997</v>
@@ -48632,14 +48635,14 @@
         <v>136</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q415" t="s" s="2">
         <v>74</v>
@@ -48708,10 +48711,10 @@
         <v>812</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -48811,10 +48814,10 @@
         <v>812</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -48916,10 +48919,10 @@
         <v>812</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49023,14 +49026,14 @@
         <v>812</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" t="s" s="2">
@@ -49052,16 +49055,16 @@
         <v>356</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O419" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P419" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q419" t="s" s="2">
         <v>74</v>
@@ -49089,7 +49092,7 @@
         <v>317</v>
       </c>
       <c r="Z419" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA419" t="s" s="2">
         <v>74</v>
@@ -49110,7 +49113,7 @@
         <v>74</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>82</v>
@@ -49130,10 +49133,10 @@
         <v>812</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -49233,10 +49236,10 @@
         <v>812</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -49338,10 +49341,10 @@
         <v>812</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -49367,16 +49370,16 @@
         <v>305</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O422" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P422" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q422" t="s" s="2">
         <v>74</v>
@@ -49425,7 +49428,7 @@
         <v>74</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>75</v>
@@ -49445,10 +49448,10 @@
         <v>812</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -49474,23 +49477,23 @@
         <v>141</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O423" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P423" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q423" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R423" s="2"/>
       <c r="S423" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="T423" t="s" s="2">
         <v>74</v>
@@ -49532,7 +49535,7 @@
         <v>74</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>75</v>
@@ -49552,10 +49555,10 @@
         <v>812</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -49581,10 +49584,10 @@
         <v>356</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
@@ -49615,7 +49618,7 @@
       </c>
       <c r="Z424" s="2"/>
       <c r="AA424" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AB424" t="s" s="2">
         <v>74</v>
@@ -49633,7 +49636,7 @@
         <v>74</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH424" t="s" s="2">
         <v>82</v>
@@ -49653,13 +49656,13 @@
         <v>812</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D425" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E425" t="s" s="2">
         <v>997</v>
@@ -49684,14 +49687,14 @@
         <v>136</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O425" s="2"/>
       <c r="P425" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q425" t="s" s="2">
         <v>74</v>
@@ -49760,10 +49763,10 @@
         <v>812</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -49863,10 +49866,10 @@
         <v>812</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -49968,10 +49971,10 @@
         <v>812</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -50075,14 +50078,14 @@
         <v>812</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
@@ -50104,16 +50107,16 @@
         <v>356</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O429" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P429" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>74</v>
@@ -50141,7 +50144,7 @@
         <v>317</v>
       </c>
       <c r="Z429" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA429" t="s" s="2">
         <v>74</v>
@@ -50162,7 +50165,7 @@
         <v>74</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>82</v>
@@ -50182,10 +50185,10 @@
         <v>812</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -50285,10 +50288,10 @@
         <v>812</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -50390,10 +50393,10 @@
         <v>812</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -50419,16 +50422,16 @@
         <v>305</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P432" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q432" t="s" s="2">
         <v>74</v>
@@ -50477,7 +50480,7 @@
         <v>74</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>75</v>
@@ -50497,10 +50500,10 @@
         <v>812</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -50526,23 +50529,23 @@
         <v>141</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O433" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P433" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q433" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R433" s="2"/>
       <c r="S433" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="T433" t="s" s="2">
         <v>74</v>
@@ -50584,7 +50587,7 @@
         <v>74</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>75</v>
@@ -50604,10 +50607,10 @@
         <v>812</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -50633,10 +50636,10 @@
         <v>424</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
@@ -50687,7 +50690,7 @@
         <v>74</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>82</v>
@@ -50707,13 +50710,13 @@
         <v>812</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E435" t="s" s="2">
         <v>997</v>
@@ -50738,14 +50741,14 @@
         <v>136</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O435" s="2"/>
       <c r="P435" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q435" t="s" s="2">
         <v>74</v>
@@ -50814,10 +50817,10 @@
         <v>812</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -50917,10 +50920,10 @@
         <v>812</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -51022,10 +51025,10 @@
         <v>812</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -51129,14 +51132,14 @@
         <v>812</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" t="s" s="2">
@@ -51158,16 +51161,16 @@
         <v>356</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O439" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P439" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>74</v>
@@ -51195,7 +51198,7 @@
         <v>317</v>
       </c>
       <c r="Z439" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA439" t="s" s="2">
         <v>74</v>
@@ -51216,7 +51219,7 @@
         <v>74</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>82</v>
@@ -51236,10 +51239,10 @@
         <v>812</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -51339,10 +51342,10 @@
         <v>812</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -51444,10 +51447,10 @@
         <v>812</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -51473,16 +51476,16 @@
         <v>305</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O442" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P442" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q442" t="s" s="2">
         <v>74</v>
@@ -51531,7 +51534,7 @@
         <v>74</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>75</v>
@@ -51551,10 +51554,10 @@
         <v>812</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -51580,23 +51583,23 @@
         <v>141</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O443" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P443" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q443" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R443" s="2"/>
       <c r="S443" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="T443" t="s" s="2">
         <v>74</v>
@@ -51638,7 +51641,7 @@
         <v>74</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>75</v>
@@ -51658,10 +51661,10 @@
         <v>812</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -51687,10 +51690,10 @@
         <v>356</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O444" s="2"/>
       <c r="P444" s="2"/>
@@ -51721,7 +51724,7 @@
       </c>
       <c r="Z444" s="2"/>
       <c r="AA444" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AB444" t="s" s="2">
         <v>74</v>
@@ -51739,7 +51742,7 @@
         <v>74</v>
       </c>
       <c r="AG444" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH444" t="s" s="2">
         <v>82</v>
@@ -51759,13 +51762,13 @@
         <v>812</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E445" t="s" s="2">
         <v>997</v>
@@ -51790,14 +51793,14 @@
         <v>136</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O445" s="2"/>
       <c r="P445" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q445" t="s" s="2">
         <v>74</v>
@@ -51866,10 +51869,10 @@
         <v>812</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -51969,10 +51972,10 @@
         <v>812</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -52074,10 +52077,10 @@
         <v>812</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -52181,14 +52184,14 @@
         <v>812</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F449" s="2"/>
       <c r="G449" t="s" s="2">
@@ -52210,16 +52213,16 @@
         <v>356</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O449" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P449" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q449" t="s" s="2">
         <v>74</v>
@@ -52247,7 +52250,7 @@
         <v>317</v>
       </c>
       <c r="Z449" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA449" t="s" s="2">
         <v>74</v>
@@ -52268,7 +52271,7 @@
         <v>74</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>82</v>
@@ -52288,10 +52291,10 @@
         <v>812</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -52391,10 +52394,10 @@
         <v>812</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -52496,10 +52499,10 @@
         <v>812</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -52525,16 +52528,16 @@
         <v>305</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O452" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P452" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q452" t="s" s="2">
         <v>74</v>
@@ -52583,7 +52586,7 @@
         <v>74</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>75</v>
@@ -52603,10 +52606,10 @@
         <v>812</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -52632,23 +52635,23 @@
         <v>141</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O453" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P453" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q453" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R453" s="2"/>
       <c r="S453" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="T453" t="s" s="2">
         <v>74</v>
@@ -52690,7 +52693,7 @@
         <v>74</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>75</v>
@@ -52710,10 +52713,10 @@
         <v>812</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -52739,10 +52742,10 @@
         <v>356</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
@@ -52773,7 +52776,7 @@
       </c>
       <c r="Z454" s="2"/>
       <c r="AA454" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="AB454" t="s" s="2">
         <v>74</v>
@@ -52791,7 +52794,7 @@
         <v>74</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>82</v>
@@ -52811,13 +52814,13 @@
         <v>812</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E455" t="s" s="2">
         <v>997</v>
@@ -52842,14 +52845,14 @@
         <v>136</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q455" t="s" s="2">
         <v>74</v>
@@ -52918,10 +52921,10 @@
         <v>812</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -53021,10 +53024,10 @@
         <v>812</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
@@ -53126,10 +53129,10 @@
         <v>812</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -53233,14 +53236,14 @@
         <v>812</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" t="s" s="2">
@@ -53262,16 +53265,16 @@
         <v>356</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O459" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P459" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q459" t="s" s="2">
         <v>74</v>
@@ -53299,7 +53302,7 @@
         <v>317</v>
       </c>
       <c r="Z459" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA459" t="s" s="2">
         <v>74</v>
@@ -53320,7 +53323,7 @@
         <v>74</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>82</v>
@@ -53340,10 +53343,10 @@
         <v>812</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -53443,10 +53446,10 @@
         <v>812</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -53548,10 +53551,10 @@
         <v>812</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -53577,16 +53580,16 @@
         <v>305</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O462" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P462" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q462" t="s" s="2">
         <v>74</v>
@@ -53635,7 +53638,7 @@
         <v>74</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>75</v>
@@ -53655,10 +53658,10 @@
         <v>812</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -53684,23 +53687,23 @@
         <v>141</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P463" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q463" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R463" s="2"/>
       <c r="S463" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="T463" t="s" s="2">
         <v>74</v>
@@ -53742,7 +53745,7 @@
         <v>74</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>75</v>
@@ -53762,10 +53765,10 @@
         <v>812</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -53788,13 +53791,13 @@
         <v>74</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
@@ -53845,7 +53848,7 @@
         <v>74</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>82</v>
@@ -53865,13 +53868,13 @@
         <v>812</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E465" t="s" s="2">
         <v>997</v>
@@ -53896,14 +53899,14 @@
         <v>136</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O465" s="2"/>
       <c r="P465" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q465" t="s" s="2">
         <v>74</v>
@@ -53972,10 +53975,10 @@
         <v>812</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -54075,10 +54078,10 @@
         <v>812</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -54180,10 +54183,10 @@
         <v>812</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -54287,14 +54290,14 @@
         <v>812</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
@@ -54316,16 +54319,16 @@
         <v>356</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O469" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P469" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q469" t="s" s="2">
         <v>74</v>
@@ -54353,7 +54356,7 @@
         <v>317</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA469" t="s" s="2">
         <v>74</v>
@@ -54374,7 +54377,7 @@
         <v>74</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>82</v>
@@ -54394,10 +54397,10 @@
         <v>812</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -54497,10 +54500,10 @@
         <v>812</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -54602,10 +54605,10 @@
         <v>812</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -54631,16 +54634,16 @@
         <v>305</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O472" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P472" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q472" t="s" s="2">
         <v>74</v>
@@ -54689,7 +54692,7 @@
         <v>74</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>75</v>
@@ -54709,10 +54712,10 @@
         <v>812</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -54738,23 +54741,23 @@
         <v>141</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O473" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P473" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q473" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R473" s="2"/>
       <c r="S473" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="T473" t="s" s="2">
         <v>74</v>
@@ -54796,7 +54799,7 @@
         <v>74</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>75</v>
@@ -54816,10 +54819,10 @@
         <v>812</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -54845,10 +54848,10 @@
         <v>356</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="N474" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
@@ -54879,7 +54882,7 @@
       </c>
       <c r="Z474" s="2"/>
       <c r="AA474" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB474" t="s" s="2">
         <v>74</v>
@@ -54897,7 +54900,7 @@
         <v>74</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH474" t="s" s="2">
         <v>82</v>
@@ -54917,20 +54920,20 @@
         <v>812</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C475" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E475" t="s" s="2">
         <v>997</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H475" t="s" s="2">
         <v>82</v>
@@ -54948,14 +54951,14 @@
         <v>136</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O475" s="2"/>
       <c r="P475" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q475" t="s" s="2">
         <v>74</v>
@@ -55024,10 +55027,10 @@
         <v>812</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -55127,10 +55130,10 @@
         <v>812</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -55232,10 +55235,10 @@
         <v>812</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -55339,14 +55342,14 @@
         <v>812</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" t="s" s="2">
@@ -55368,16 +55371,16 @@
         <v>356</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O479" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P479" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q479" t="s" s="2">
         <v>74</v>
@@ -55405,7 +55408,7 @@
         <v>317</v>
       </c>
       <c r="Z479" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA479" t="s" s="2">
         <v>74</v>
@@ -55426,7 +55429,7 @@
         <v>74</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>82</v>
@@ -55446,10 +55449,10 @@
         <v>812</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -55549,10 +55552,10 @@
         <v>812</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -55654,10 +55657,10 @@
         <v>812</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -55683,16 +55686,16 @@
         <v>305</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O482" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P482" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q482" t="s" s="2">
         <v>74</v>
@@ -55741,7 +55744,7 @@
         <v>74</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>75</v>
@@ -55761,10 +55764,10 @@
         <v>812</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -55790,23 +55793,23 @@
         <v>141</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O483" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P483" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q483" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R483" s="2"/>
       <c r="S483" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="T483" t="s" s="2">
         <v>74</v>
@@ -55848,7 +55851,7 @@
         <v>74</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>75</v>
@@ -55868,10 +55871,10 @@
         <v>812</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -55897,10 +55900,10 @@
         <v>356</v>
       </c>
       <c r="M484" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N484" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
@@ -55931,7 +55934,7 @@
       </c>
       <c r="Z484" s="2"/>
       <c r="AA484" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="AB484" t="s" s="2">
         <v>74</v>
@@ -55949,7 +55952,7 @@
         <v>74</v>
       </c>
       <c r="AG484" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH484" t="s" s="2">
         <v>82</v>
@@ -55969,13 +55972,13 @@
         <v>812</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C485" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E485" t="s" s="2">
         <v>997</v>
@@ -56000,14 +56003,14 @@
         <v>136</v>
       </c>
       <c r="M485" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="N485" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O485" s="2"/>
       <c r="P485" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q485" t="s" s="2">
         <v>74</v>
@@ -56076,10 +56079,10 @@
         <v>812</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -56179,10 +56182,10 @@
         <v>812</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -56284,10 +56287,10 @@
         <v>812</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -56391,14 +56394,14 @@
         <v>812</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F489" s="2"/>
       <c r="G489" t="s" s="2">
@@ -56420,16 +56423,16 @@
         <v>356</v>
       </c>
       <c r="M489" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N489" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O489" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P489" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q489" t="s" s="2">
         <v>74</v>
@@ -56457,7 +56460,7 @@
         <v>317</v>
       </c>
       <c r="Z489" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA489" t="s" s="2">
         <v>74</v>
@@ -56478,7 +56481,7 @@
         <v>74</v>
       </c>
       <c r="AG489" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH489" t="s" s="2">
         <v>82</v>
@@ -56498,10 +56501,10 @@
         <v>812</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -56601,10 +56604,10 @@
         <v>812</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -56706,10 +56709,10 @@
         <v>812</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -56735,16 +56738,16 @@
         <v>305</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O492" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P492" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q492" t="s" s="2">
         <v>74</v>
@@ -56793,7 +56796,7 @@
         <v>74</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>75</v>
@@ -56813,10 +56816,10 @@
         <v>812</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -56842,23 +56845,23 @@
         <v>141</v>
       </c>
       <c r="M493" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N493" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O493" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P493" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q493" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R493" s="2"/>
       <c r="S493" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="T493" t="s" s="2">
         <v>74</v>
@@ -56900,7 +56903,7 @@
         <v>74</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>75</v>
@@ -56920,10 +56923,10 @@
         <v>812</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -56949,10 +56952,10 @@
         <v>112</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
@@ -57003,7 +57006,7 @@
         <v>74</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>82</v>
@@ -57023,13 +57026,13 @@
         <v>812</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C495" t="s" s="2">
         <v>996</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E495" t="s" s="2">
         <v>997</v>
@@ -57054,14 +57057,14 @@
         <v>136</v>
       </c>
       <c r="M495" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="N495" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O495" s="2"/>
       <c r="P495" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q495" t="s" s="2">
         <v>74</v>
@@ -57130,10 +57133,10 @@
         <v>812</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -57233,10 +57236,10 @@
         <v>812</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -57338,10 +57341,10 @@
         <v>812</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -57445,14 +57448,14 @@
         <v>812</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F499" s="2"/>
       <c r="G499" t="s" s="2">
@@ -57474,16 +57477,16 @@
         <v>356</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O499" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P499" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q499" t="s" s="2">
         <v>74</v>
@@ -57511,7 +57514,7 @@
         <v>317</v>
       </c>
       <c r="Z499" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA499" t="s" s="2">
         <v>74</v>
@@ -57532,7 +57535,7 @@
         <v>74</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>82</v>
@@ -57552,10 +57555,10 @@
         <v>812</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -57655,10 +57658,10 @@
         <v>812</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -57760,10 +57763,10 @@
         <v>812</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -57789,16 +57792,16 @@
         <v>305</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N502" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O502" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="P502" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q502" t="s" s="2">
         <v>74</v>
@@ -57847,7 +57850,7 @@
         <v>74</v>
       </c>
       <c r="AG502" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH502" t="s" s="2">
         <v>75</v>
@@ -57867,10 +57870,10 @@
         <v>812</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -57896,23 +57899,23 @@
         <v>141</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N503" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O503" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P503" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="Q503" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R503" s="2"/>
       <c r="S503" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="T503" t="s" s="2">
         <v>74</v>
@@ -57954,7 +57957,7 @@
         <v>74</v>
       </c>
       <c r="AG503" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH503" t="s" s="2">
         <v>75</v>
@@ -57974,10 +57977,10 @@
         <v>812</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -58003,10 +58006,10 @@
         <v>112</v>
       </c>
       <c r="M504" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N504" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
@@ -58057,7 +58060,7 @@
         <v>74</v>
       </c>
       <c r="AG504" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH504" t="s" s="2">
         <v>82</v>
@@ -58077,10 +58080,10 @@
         <v>812</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -58106,14 +58109,14 @@
         <v>136</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="N505" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="O505" s="2"/>
       <c r="P505" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="Q505" t="s" s="2">
         <v>74</v>
@@ -58162,7 +58165,7 @@
         <v>74</v>
       </c>
       <c r="AG505" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AH505" t="s" s="2">
         <v>75</v>
@@ -58182,10 +58185,10 @@
         <v>812</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
@@ -58285,10 +58288,10 @@
         <v>812</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -58390,10 +58393,10 @@
         <v>812</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -58497,14 +58500,14 @@
         <v>812</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F509" s="2"/>
       <c r="G509" t="s" s="2">
@@ -58526,16 +58529,16 @@
         <v>356</v>
       </c>
       <c r="M509" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="O509" t="s" s="2">
         <v>359</v>
       </c>
       <c r="P509" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="Q509" t="s" s="2">
         <v>74</v>
@@ -58563,7 +58566,7 @@
         <v>317</v>
       </c>
       <c r="Z509" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AA509" t="s" s="2">
         <v>74</v>
@@ -58584,7 +58587,7 @@
         <v>74</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>82</v>
@@ -58604,10 +58607,10 @@
         <v>812</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -58630,17 +58633,17 @@
         <v>74</v>
       </c>
       <c r="L510" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M510" t="s" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="N510" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="O510" s="2"/>
       <c r="P510" t="s" s="2">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="Q510" t="s" s="2">
         <v>74</v>
@@ -58689,7 +58692,7 @@
         <v>74</v>
       </c>
       <c r="AG510" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AH510" t="s" s="2">
         <v>82</v>
